--- a/BurndownChartSampleS3.xlsx
+++ b/BurndownChartSampleS3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5505E9-8808-4839-98F1-7AD5A2506A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37903D5-EB64-44BB-84E9-3A09232B83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
   </bookViews>
@@ -963,52 +963,52 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,7 +2231,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:AB4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2647,7 +2647,9 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="J10" s="4">
+        <v>2</v>
+      </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
@@ -2682,7 +2684,9 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="J11" s="4">
+        <v>3</v>
+      </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2717,7 +2721,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -2752,7 +2758,9 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="J13" s="4">
+        <v>4</v>
+      </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -3072,67 +3080,67 @@
       </c>
       <c r="J23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="S23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="V23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="X23" s="24">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="30">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="Z23" s="32"/>
       <c r="AA23" s="15"/>

--- a/BurndownChartSampleS3.xlsx
+++ b/BurndownChartSampleS3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\datatech_api-BranchSprint3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37903D5-EB64-44BB-84E9-3A09232B83D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70091924-7493-4147-A9C9-7322F5BC3052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
   </bookViews>
@@ -975,40 +975,40 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2231,7 +2231,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2583,9 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4">
+        <v>2</v>
+      </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
@@ -2616,7 +2618,9 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
+      <c r="N9" s="4">
+        <v>2</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -2690,7 +2694,9 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
+      <c r="N11" s="4">
+        <v>3</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -2764,7 +2770,9 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4">
+        <v>2</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -3096,51 +3104,51 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Q23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="S23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="V23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="X23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Y23" s="30">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="Z23" s="32"/>
       <c r="AA23" s="15"/>

--- a/BurndownChartSampleS3.xlsx
+++ b/BurndownChartSampleS3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\datatech_api-BranchSprint3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70091924-7493-4147-A9C9-7322F5BC3052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A705FC2-FA24-4418-9DDB-0AC33037E5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
   </bookViews>
@@ -963,52 +963,52 @@
                   <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>26</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>26</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>26</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2230,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC29A8CD-DF58-4BF2-8F74-8CB7252C889B}">
   <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2552,7 +2552,9 @@
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="V7" s="10">
+        <v>4</v>
+      </c>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="27"/>
@@ -2591,7 +2593,9 @@
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="4"/>
+      <c r="V8" s="4">
+        <v>3</v>
+      </c>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="28"/>
@@ -2668,7 +2672,9 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="28"/>
+      <c r="Y10" s="28">
+        <v>1</v>
+      </c>
       <c r="Z10" s="32"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="16"/>
@@ -2688,9 +2694,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="4">
-        <v>3</v>
-      </c>
+      <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -2743,7 +2747,9 @@
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
+      <c r="X12" s="4">
+        <v>6</v>
+      </c>
       <c r="Y12" s="28"/>
       <c r="Z12" s="32"/>
       <c r="AA12" s="15"/>
@@ -2783,7 +2789,9 @@
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="28"/>
+      <c r="Y13" s="28">
+        <v>4</v>
+      </c>
       <c r="Z13" s="32"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="16"/>
@@ -2818,7 +2826,9 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="28"/>
+      <c r="Y14" s="28">
+        <v>2</v>
+      </c>
       <c r="Z14" s="32"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="16"/>
@@ -3088,67 +3098,67 @@
       </c>
       <c r="J23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Q23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="V23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="X23" s="24">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="Y23" s="30">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="Z23" s="32"/>
       <c r="AA23" s="15"/>
